--- a/data2.xlsx
+++ b/data2.xlsx
@@ -12,7 +12,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>BOHEMIAN RHAPSODY</t>
+  </si>
+  <si>
+    <t>1975-10-31</t>
+  </si>
+  <si>
+    <t>IMAGINE</t>
+  </si>
+  <si>
+    <t>1971-10-11</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN</t>
+  </si>
+  <si>
+    <t>1983-01-02</t>
+  </si>
+  <si>
+    <t>SMELLS LIKE TEEN SPIRIT</t>
+  </si>
+  <si>
+    <t>1991-09-10</t>
+  </si>
+  <si>
+    <t>HOTEL CALIFORNIA</t>
+  </si>
+  <si>
+    <t>1976-12-08</t>
+  </si>
+  <si>
+    <t>SHAPE OF YOU</t>
+  </si>
+  <si>
+    <t>2017-01-06</t>
+  </si>
+  <si>
+    <t>HEY JUDE</t>
+  </si>
+  <si>
+    <t>1968-08-26</t>
+  </si>
+  <si>
+    <t>ROLLING IN THE DEEP</t>
+  </si>
+  <si>
+    <t>2010-11-29</t>
+  </si>
+  <si>
+    <t>LIKE A ROLLING STONE</t>
+  </si>
+  <si>
+    <t>1965-07-20</t>
+  </si>
+  <si>
+    <t>STAIRWAY TO HEAVEN</t>
+  </si>
+  <si>
+    <t>1971-11-08</t>
+  </si>
+  <si>
+    <t>SOMEONE LIKE YOU</t>
+  </si>
+  <si>
+    <t>2011-01-24</t>
+  </si>
+  <si>
+    <t>WONDERWALL</t>
+  </si>
+  <si>
+    <t>1995-10-02</t>
+  </si>
+  <si>
+    <t>THRILLER</t>
+  </si>
+  <si>
+    <t>1982-11-30</t>
+  </si>
+  <si>
+    <t>PURPLE RAIN</t>
+  </si>
+  <si>
+    <t>1984-06-25</t>
+  </si>
+  <si>
+    <t>BACK IN BLACK</t>
+  </si>
+  <si>
+    <t>1980-07-25</t>
+  </si>
+  <si>
+    <t>FIX YOU</t>
+  </si>
+  <si>
+    <t>2005-09-05</t>
+  </si>
+  <si>
+    <t>LOSE YOURSELF</t>
+  </si>
+  <si>
+    <t>2002-10-28</t>
+  </si>
+  <si>
+    <t>HALLELUJAH</t>
+  </si>
+  <si>
+    <t>1994-08-23</t>
+  </si>
+  <si>
+    <t>CLOCKS</t>
+  </si>
+  <si>
+    <t>2002-08-26</t>
+  </si>
+  <si>
+    <t>YESTERDAY</t>
+  </si>
+  <si>
+    <t>1965-09-13</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,12 +176,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>